--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed5/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.106</v>
+        <v>-7.044999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.846</v>
+        <v>-11.358</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.32</v>
+        <v>-7.216999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.372</v>
+        <v>-12.446</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.64</v>
+        <v>16.798</v>
       </c>
     </row>
     <row r="9">
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.148000000000001</v>
+        <v>-6.94</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.714</v>
+        <v>6.366000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -627,7 +627,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.086</v>
+        <v>16.716</v>
       </c>
     </row>
     <row r="12">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.88</v>
+        <v>4.871</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,13 +672,13 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.598</v>
+        <v>-13.054</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.068</v>
+        <v>16.669</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.794</v>
+        <v>4.83</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.306000000000001</v>
+        <v>-8.190000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>16.102</v>
+        <v>16.392</v>
       </c>
     </row>
     <row r="16">
@@ -729,7 +729,7 @@
         <v>-7.82</v>
       </c>
       <c r="E17" t="n">
-        <v>17.064</v>
+        <v>16.771</v>
       </c>
     </row>
     <row r="18">
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.886000000000001</v>
+        <v>-8.099</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.532</v>
+        <v>-7.825</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.938</v>
+        <v>-7.95</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -876,13 +876,13 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-10.886</v>
+        <v>-11.443</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>17.364</v>
+        <v>16.71100000000001</v>
       </c>
     </row>
     <row r="27">
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.418</v>
+        <v>5.786</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.57</v>
+        <v>-8.530000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -907,13 +907,13 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.523999999999999</v>
+        <v>6.192</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.446000000000002</v>
+        <v>-7.99</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.369999999999999</v>
+        <v>-7.206</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.856</v>
+        <v>5.492</v>
       </c>
       <c r="C31" t="n">
-        <v>-11.902</v>
+        <v>-12.333</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,13 +975,13 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>5.994</v>
+        <v>6.250999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.287999999999999</v>
+        <v>-7.593999999999999</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.932</v>
+        <v>-11.998</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.446000000000002</v>
+        <v>9.356</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.838</v>
+        <v>16.686</v>
       </c>
     </row>
     <row r="37">
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.606</v>
+        <v>-13.569</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.98</v>
+        <v>5.223999999999999</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.886</v>
+        <v>-12.434</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.506</v>
+        <v>-12.989</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.746</v>
+        <v>16.687</v>
       </c>
     </row>
     <row r="43">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.398000000000001</v>
+        <v>-7.673999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.826</v>
+        <v>-12.776</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>4.934</v>
+        <v>5.696000000000001</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.378</v>
+        <v>-7.531000000000001</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.164</v>
+        <v>-11.07</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.788</v>
+        <v>5.119</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.478</v>
+        <v>4.720999999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.576</v>
+        <v>4.614</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.182</v>
+        <v>-13.646</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.934</v>
+        <v>-7.974000000000001</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.852000000000001</v>
+        <v>-7.869</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.06</v>
+        <v>17.396</v>
       </c>
     </row>
     <row r="65">
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.351999999999999</v>
+        <v>5.212000000000001</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.284</v>
+        <v>17.037</v>
       </c>
     </row>
     <row r="69">
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.692</v>
+        <v>5.212</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.915999999999999</v>
+        <v>5.624</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.130000000000001</v>
+        <v>8.247</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-7.572</v>
+        <v>-7.45</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.032</v>
+        <v>-8.076999999999998</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.238</v>
+        <v>17.394</v>
       </c>
     </row>
     <row r="80">
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-14.252</v>
+        <v>-13.035</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.388</v>
+        <v>5.007000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.694</v>
+        <v>-13.607</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.048</v>
+        <v>-8.019</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.964</v>
+        <v>5.037999999999999</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-7.694</v>
+        <v>-7.363</v>
       </c>
       <c r="E89" t="n">
-        <v>17.252</v>
+        <v>17.126</v>
       </c>
     </row>
     <row r="90">
@@ -1978,13 +1978,13 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.436</v>
+        <v>5.6</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.287999999999999</v>
+        <v>-6.856999999999999</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.613999999999999</v>
+        <v>-7.192</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.220000000000001</v>
+        <v>5.77</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.592000000000001</v>
+        <v>-7.446</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>6.388</v>
+        <v>5.811000000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-11.402</v>
+        <v>-12.332</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.346</v>
+        <v>-13.228</v>
       </c>
       <c r="D102" t="n">
-        <v>-6.756</v>
+        <v>-7.334999999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
